--- a/Coverage Map - Free Space PL Model/Antenna_Pattern.xlsx
+++ b/Coverage Map - Free Space PL Model/Antenna_Pattern.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzainal\OneDrive\Code\01 - Python\04 - Project\5G-NR-Coverage-Prediction\Cell Coverage Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzainal\OneDrive\Code\01 - Python\04 - Project\5G-NR-Coverage-Prediction\Coverage Map - Free Space PL Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210A1E41-3C40-421E-BC50-7426A855637E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{210A1E41-3C40-421E-BC50-7426A855637E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0FB5C417-48ED-4EEF-8711-EAFF884654BA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antenna_Pattern" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Antenna_Pattern!$A$1:$P$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Antenna_Pattern!$A$1:$P$8</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -79,13 +79,7 @@
     <t>VendorA</t>
   </si>
   <si>
-    <t xml:space="preserve">2 0 0 360 0 0 1 0.02 2 0.08 3 0.16 4 0.27 5 0.41 6 0.58 7 0.78 8 1.01 9 1.28 10 1.59 11 1.94 12 2.34 13 2.8 14 3.32 15 3.9 16 4.55 17 5.27 18 6.08 19 6.98 20 7.98 21 9.1 22 10.36 23 11.8 24 13.48 25 15.5 26 18.01 27 21.37 28 26.59 29 39.84 30 32.27 31 24.93 32 21.24 33 18.85 34 17.13 35 15.84 36 14.85 37 14.09 38 13.5 39 13.05 40 12.74 41 12.52 42 12.41 43 12.37 44 12.42 45 12.53 46 12.71 47 12.95 48 13.24 49 13.59 50 13.98 51 14.43 52 14.92 53 15.45 54 16.03 55 16.65 56 17.32 57 18.02 58 18.78 59 19.58 60 20.43 61 21.33 62 22.29 63 23.3 64 24.38 65 25.52 66 26.74 67 28.05 68 29.45 69 30.96 70 32.6 71 34.4 72 36.39 73 38.65 74 40 75 40 76 40 77 40 78 40 79 40 80 40 81 40 82 40 83 40 84 40 85 40 86 40 87 40 88 40 89 40 90 40 91 40 92 40 93 40 94 40 95 40 96 40 97 40 98 40 99 40 100 40 101 40 102 40 103 40 104 40 105 40 106 40 107 40 108 40 109 40 110 40 111 40 112 40 113 40 114 40 115 40 116 40 117 40 118 40 119 40 120 40 121 39.76 122 39.46 123 39.18 124 38.89 125 38.61 126 38.32 127 38.02 128 37.73 129 37.45 130 37.17 131 36.91 132 36.68 133 36.48 134 36.32 135 36.19 136 36.11 137 36.08 138 36.09 139 36.15 140 36.27 141 36.46 142 36.74 143 37.14 144 37.71 145 38.49 146 39.59 147 40 148 40 149 40 150 40 151 40 152 40 153 40 154 40 155 38.98 156 37.59 157 36.67 158 36.14 159 35.97 160 36.15 161 36.66 162 37.47 163 38.44 164 39.13 165 38.85 166 37.44 167 35.53 168 33.68 169 32.09 170 30.81 171 29.83 172 29.15 173 28.72 174 28.55 175 28.61 176 28.88 177 29.33 178 29.93 179 30.65 180 31.47 181 32.38 182 33.45 183 34.8 184 36.66 185 39.45 186 40 187 40 188 40 189 40 190 36.74 191 34.55 192 33.17 193 32.36 194 32.02 195 32.08 196 32.53 197 33.34 198 34.51 199 36.05 200 38 201 40 202 40 203 40 204 40 205 40 206 40 207 40 208 40 209 40 210 40 211 40 212 40 213 40 214 40 215 40 216 40 217 40 218 40 219 40 220 40 221 40 222 40 223 40 224 40 225 40 226 40 227 40 228 39.7 229 39.1 230 38.71 231 38.52 232 38.52 233 38.68 234 38.99 235 39.42 236 39.94 237 40 238 40 239 40 240 40 241 40 242 40 243 40 244 40 245 40 246 40 247 40 248 40 249 40 250 40 251 40 252 40 253 40 254 40 255 40 256 40 257 40 258 40 259 40 260 40 261 40 262 40 263 40 264 40 265 40 266 40 267 40 268 40 269 40 270 40 271 40 272 40 273 40 274 40 275 40 276 40 277 40 278 40 279 40 280 40 281 40 282 40 283 40 284 40 285 40 286 40 287 38.16 288 35.94 289 33.97 290 32.2 291 30.59 292 29.1 293 27.71 294 26.41 295 25.2 296 24.05 297 22.96 298 21.94 299 20.97 300 20.05 301 19.18 302 18.37 303 17.6 304 16.88 305 16.21 306 15.6 307 15.03 308 14.52 309 14.06 310 13.66 311 13.32 312 13.03 313 12.8 314 12.63 315 12.52 316 12.48 317 12.5 318 12.6 319 12.77 320 13.02 321 13.37 322 13.83 323 14.42 324 15.18 325 16.15 326 17.41 327 19.08 328 21.43 329 25.06 330 32.35 331 39.87 332 26.58 333 21.32 334 17.92 335 15.4 336 13.39 337 11.72 338 10.31 339 9.08 340 8.01 341 7.07 342 6.23 343 5.47 344 4.79 345 4.17 346 3.61 347 3.09 348 2.62 349 2.19 350 1.79 351 1.44 352 1.12 353 0.84 354 0.6 355 0.41 356 0.25 357 0.13 358 0.05 359 0.01  1 0 360 0 0.04 1 0.08 2 0.13 3 0.19 4 0.26 5 0.35 6 0.45 7 0.57 8 0.7 9 0.85 10 1.02 11 1.22 12 1.45 13 1.7 14 1.98 15 2.3 16 2.65 17 3.03 18 3.44 19 3.9 20 4.38 21 4.91 22 5.47 23 6.06 24 6.69 25 7.35 26 8.04 27 8.77 28 9.52 29 10.31 30 11.12 31 11.96 32 12.84 33 13.76 34 14.74 35 15.81 36 16.98 37 18.32 38 19.87 39 21.76 40 24.15 41 27.43 42 32.59 43 40 44 35.85 45 29.54 46 25.99 47 23.6 48 21.85 49 20.5 50 19.45 51 18.61 52 17.94 53 17.41 54 17 55 16.69 56 16.47 57 16.32 58 16.25 59 16.25 60 16.3 61 16.42 62 16.58 63 16.8 64 17.06 65 17.36 66 17.71 67 18.09 68 18.51 69 18.97 70 19.45 71 19.95 72 20.48 73 21.03 74 21.6 75 22.18 76 22.77 77 23.38 78 23.98 79 24.6 80 25.22 81 25.84 82 26.47 83 27.11 84 27.75 85 28.39 86 29.05 87 29.72 88 30.4 89 31.08 90 31.78 91 32.48 92 33.17 93 33.83 94 34.44 95 34.96 96 35.36 97 35.6 98 36.2 99 36.77 100 36.77 101 36.77 102 36.77 103 36.66 104 35.24 105 34.11 106 33.24 107 32.61 108 32.19 109 31.96 110 31.89 111 31.96 112 32.16 113 32.45 114 32.81 115 33.19 116 33.56 117 33.88 118 34.14 119 34.37 120 34.6 121 34.88 122 35.27 123 35.81 124 36.54 125 36.77 126 36.77 127 36.77 128 36.77 129 36.77 130 36.77 131 36.77 132 36.77 133 36.77 134 36.77 135 36.77 136 36.77 137 36.77 138 36.77 139 36.77 140 36.77 141 36.77 142 35.66 143 34.53 144 33.6 145 32.88 146 32.33 147 31.99 148 32.09 149 32.22 150 32.33 151 32.36 152 32.26 153 32 154 31.58 155 31.01 156 30.36 157 29.68 158 29.03 159 28.49 160 28.14 161 27.92 162 27.83 163 27.86 164 27.96 165 28.08 166 28.39 167 28.68 168 28.86 169 28.88 170 28.78 171 28.62 172 28.47 173 28.4 174 28.44 175 28.63 176 28.94 177 29.36 178 29.86 179 30.37 180 30.85 181 31.23 182 31.47 183 31.53 184 31.43 185 31.17 186 30.83 187 30.45 188 30.1 189 29.82 190 29.65 191 29.6 192 29.67 193 29.83 194 30.04 195 30.25 196 30.39 197 30.41 198 30.31 199 30.12 200 29.92 201 29.75 202 29.67 203 29.96 204 30.53 205 31.05 206 31.44 207 31.61 208 31.55 209 31.72 210 31.95 211 32.04 212 32.02 213 31.96 214 31.92 215 32.4 216 33.62 217 35.33 218 36.77 219 36.77 220 36.77 221 36.77 222 37.22 223 38.68 224 40 225 40 226 40 227 40 228 40 229 40 230 40 231 40 232 40 233 39.58 234 38.85 235 38.22 236 37.72 237 37.39 238 37.24 239 37.27 240 37.49 241 37.91 242 38.53 243 39.32 244 40 245 40 246 40 247 40 248 40 249 40 250 40 251 40 252 39.18 253 38.35 254 37.65 255 37.06 256 36.57 257 36.17 258 35.84 259 35.56 260 35.33 261 35.11 262 34.9 263 34.68 264 34.44 265 34.16 266 33.84 267 33.46 268 33.04 269 32.56 270 32.03 271 31.46 272 30.86 273 30.23 274 29.58 275 28.91 276 28.24 277 27.56 278 26.88 279 26.2 280 25.53 281 24.87 282 24.21 283 23.57 284 22.94 285 22.33 286 21.73 287 21.16 288 20.62 289 20.1 290 19.62 291 19.17 292 18.75 293 18.38 294 18.04 295 17.76 296 17.51 297 17.32 298 17.18 299 17.08 300 17.05 301 17.07 302 17.15 303 17.29 304 17.5 305 17.79 306 18.16 307 18.63 308 19.22 309 19.96 310 21.01 311 22.7 312 25 313 28.41 314 34.56 315 36.77 316 37.22 317 34.27 318 29.12 319 25.53 320 22.89 321 20.82 322 19.1 323 17.64 324 16.36 325 15.2 326 14.14 327 13.15 328 12.21 329 11.31 330 10.45 331 9.63 332 8.83 333 8.06 334 7.33 335 6.62 336 5.95 337 5.32 338 4.72 339 4.17 340 3.65 341 3.17 342 2.73 343 2.34 344 1.98 345 1.65 346 1.37 347 1.11 348 0.89 349 0.7 350 0.53 351 0.39 352 0.28 353 0.18 354 0.11 355 0.06 356 0.02 357 0 358 0 359 0.01  0 </t>
-  </si>
-  <si>
     <t>Type1_MassiveMIMO</t>
-  </si>
-  <si>
-    <t>H25V35(0)</t>
   </si>
   <si>
     <t xml:space="preserve">2 0 0 360 0 0.01 1 0.03 2 0.06 3 0.09 4 0.12 5 0.15 6 0.19 7 0.22 8 0.27 9 0.32 10 0.38 11 0.46 12 0.55 13 0.66 14 0.79 15 0.94 16 1.12 17 1.31 18 1.52 19 1.74 20 1.99 21 2.24 22 2.5 23 2.78 24 3.06 25 3.34 26 3.64 27 3.94 28 4.25 29 4.56 30 4.89 31 5.23 32 5.58 33 5.95 34 6.33 35 6.73 36 7.16 37 7.6 38 8.06 39 8.54 40 9.04 41 9.56 42 10.11 43 10.66 44 11.24 45 11.83 46 12.43 47 13.05 48 13.68 49 14.31 50 14.95 51 15.6 52 16.25 53 16.9 54 17.55 55 18.2 56 18.85 57 19.5 58 20.14 59 20.78 60 21.41 61 22.03 62 22.65 63 23.25 64 23.84 65 24.42 66 24.99 67 25.55 68 26.09 69 26.63 70 27.15 71 27.66 72 28.16 73 28.65 74 29.14 75 29.62 76 30.1 77 30.57 78 31.04 79 31.5 80 31.97 81 32.44 82 32.9 83 33.37 84 33.83 85 34.3 86 34.75 87 35.21 88 35.66 89 36.1 90 36.53 91 36.95 92 37.35 93 37.74 94 38.11 95 38.46 96 38.78 97 39.08 98 39.35 99 39.6 100 39.82 101 40 102 40 103 40 104 40 105 40 106 40 107 40 108 40 109 40 110 40 111 40 112 40 113 40 114 40 115 40 116 40 117 40 118 40 119 40 120 40 121 40 122 40 123 40 124 40 125 40 126 40 127 40 128 39.84 129 39.44 130 38.98 131 38.49 132 37.96 133 37.4 134 36.82 135 36.21 136 35.58 137 34.92 138 34.24 139 33.53 140 32.81 141 32.08 142 31.35 143 30.64 144 29.94 145 29.29 146 28.69 147 28.16 148 27.71 149 27.34 150 27.08 151 26.92 152 26.87 153 26.95 154 27.16 155 27.5 156 27.97 157 28.6 158 29.36 159 30.26 160 31.26 161 32.33 162 33.35 163 34.15 164 34.54 165 34.39 166 33.81 167 32.98 168 32.09 169 31.25 170 30.51 171 29.91 172 29.46 173 29.17 174 29.02 175 29.02 176 29.15 177 29.4 178 29.76 179 30.23 180 30.82 181 31.56 182 32.52 183 33.82 184 35.64 185 38.39 186 40 187 40 188 40 189 38.08 190 34.68 191 32.38 192 30.78 193 29.7 194 29.02 195 28.7 196 28.69 197 28.99 198 29.58 199 30.48 200 31.69 201 33.22 202 35.06 203 37.1 204 38.94 205 39.84 206 39.46 207 38.4 208 37.31 209 36.42 210 35.78 211 35.39 212 35.22 213 35.25 214 35.47 215 35.9 216 36.52 217 37.34 218 38.37 219 39.6 220 40 221 40 222 40 223 40 224 40 225 40 226 40 227 40 228 40 229 40 230 40 231 40 232 40 233 40 234 40 235 40 236 40 237 40 238 40 239 40 240 40 241 40 242 40 243 40 244 40 245 40 246 40 247 40 248 40 249 40 250 40 251 40 252 40 253 40 254 40 255 39.97 256 39.74 257 39.49 258 39.25 259 38.99 260 38.73 261 38.45 262 38.17 263 37.87 264 37.56 265 37.24 266 36.91 267 36.56 268 36.21 269 35.85 270 35.47 271 35.09 272 34.71 273 34.31 274 33.92 275 33.52 276 33.11 277 32.7 278 32.29 279 31.88 280 31.47 281 31.05 282 30.63 283 30.21 284 29.78 285 29.34 286 28.9 287 28.45 288 27.99 289 27.51 290 27.02 291 26.51 292 25.99 293 25.45 294 24.89 295 24.31 296 23.72 297 23.11 298 22.48 299 21.84 300 21.19 301 20.53 302 19.87 303 19.21 304 18.54 305 17.88 306 17.22 307 16.58 308 15.94 309 15.32 310 14.71 311 14.11 312 13.53 313 12.97 314 12.42 315 11.89 316 11.36 317 10.86 318 10.36 319 9.87 320 9.38 321 8.91 322 8.44 323 7.97 324 7.52 325 7.07 326 6.62 327 6.19 328 5.77 329 5.35 330 4.95 331 4.57 332 4.2 333 3.85 334 3.52 335 3.21 336 2.93 337 2.66 338 2.42 339 2.21 340 2.01 341 1.82 342 1.66 343 1.5 344 1.36 345 1.21 346 1.08 347 0.94 348 0.81 349 0.68 350 0.55 351 0.43 352 0.33 353 0.23 354 0.15 355 0.09 356 0.04 357 0.01 358 0 359 0  1 0 360 0 0 1 0.06 2 0.19 3 0.39 4 0.67 5 1.03 6 1.48 7 2.01 8 2.65 9 3.41 10 4.29 11 5.33 12 6.55 13 7.98 14 9.7 15 11.79 16 14.44 17 18 18 23.54 19 38.05 20 28.97 21 22.22 22 18.95 23 16.96 24 15.67 25 14.81 26 14.28 27 13.98 28 13.87 29 13.93 30 14.12 31 14.43 32 14.85 33 15.39 34 16.05 35 16.86 36 17.83 37 19.01 38 20.48 39 22.35 40 24.82 41 28.37 42 34.36 43 40 44 34.42 45 28.93 46 25.8 47 23.72 48 22.26 49 21.2 50 20.45 51 19.93 52 19.6 53 19.44 54 19.42 55 19.52 56 19.74 57 20.07 58 20.49 59 21.01 60 21.63 61 22.33 62 23.12 63 24 64 24.96 65 26.01 66 27.14 67 28.36 68 29.67 69 31.08 70 32.58 71 34.2 72 35.92 73 37.78 74 39.79 75 40 76 40 77 40 78 40 79 40 80 40 81 40 82 40 83 40 84 40 85 40 86 40 87 40 88 40 89 40 90 40 91 40 92 40 93 40 94 40 95 40 96 40 97 40 98 40 99 40 100 40 101 40 102 40 103 40 104 40 105 40 106 40 107 40 108 40 109 40 110 40 111 40 112 40 113 40 114 39.63 115 38.7 116 37.79 117 36.89 118 36.01 119 35.16 120 35.34 121 35.62 122 36.01 123 36.55 124 37.28 125 37.51 126 37.51 127 37.51 128 37.51 129 37.51 130 37.51 131 37.51 132 37.51 133 37.51 134 37.51 135 37.51 136 37.51 137 37.51 138 37.51 139 37.51 140 37.51 141 37.51 142 36.4 143 35.27 144 34.34 145 33.62 146 33.07 147 33.23 148 33.52 149 33.91 150 34.38 151 34.91 152 35.48 153 36.09 154 36.75 155 37.53 156 38.51 157 39.87 158 40 159 40 160 40 161 40 162 40 163 40 164 38.8 165 36.71 166 35.23 167 34.14 168 33.3 169 32.6 170 31.98 171 31.4 172 30.86 173 30.4 174 30.04 175 29.78 176 29.64 177 29.59 178 29.61 179 29.67 180 29.76 181 29.87 182 29.98 183 30.12 184 30.28 185 30.47 186 30.7 187 30.99 188 31.36 189 31.83 190 32.42 191 33.15 192 34.05 193 35.14 194 36.46 195 38.1 196 40 197 40 198 40 199 40 200 40 201 40 202 40 203 38.8 204 37.13 205 35.96 206 35.13 207 34.52 208 34.03 209 33.58 210 33.12 211 32.65 212 32.18 213 31.82 214 32.31 215 33.14 216 34.36 217 36.07 218 37.51 219 37.51 220 37.51 221 37.51 222 37.51 223 37.51 224 38.48 225 39.62 226 40 227 40 228 40 229 40 230 40 231 40 232 40 233 40 234 40 235 40 236 40 237 40 238 40 239 40 240 40 241 40 242 40 243 40 244 40 245 40 246 40 247 40 248 40 249 40 250 40 251 40 252 40 253 40 254 40 255 40 256 40 257 40 258 40 259 40 260 40 261 40 262 40 263 40 264 40 265 40 266 40 267 40 268 40 269 40 270 40 271 40 272 40 273 40 274 40 275 40 276 40 277 40 278 40 279 40 280 40 281 40 282 40 283 40 284 40 285 40 286 39.08 287 37.09 288 35.27 289 33.59 290 32.03 291 30.59 292 29.26 293 28.03 294 26.9 295 25.86 296 24.91 297 24.06 298 23.29 299 22.61 300 22.02 301 21.52 302 21.11 303 20.79 304 20.57 305 20.46 306 20.45 307 20.58 308 20.85 309 21.29 310 21.94 311 23.44 312 25.74 313 29.15 314 35.3 315 37.51 316 36.83 317 33.68 318 28.74 319 25.26 320 22.7 321 20.72 322 19.14 323 17.83 324 16.75 325 15.84 326 15.07 327 14.43 328 13.9 329 13.48 330 13.17 331 12.99 332 12.95 333 13.07 334 13.38 335 13.94 336 14.81 337 16.13 338 18.15 339 21.46 340 28.24 341 37.36 342 22.89 343 17.39 344 13.86 345 11.26 346 9.2 347 7.52 348 6.12 349 4.93 350 3.93 351 3.07 352 2.35 353 1.74 354 1.23 355 0.82 356 0.5 357 0.26 358 0.1 359 0.01  0 </t>
@@ -968,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,16 +1034,16 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
       <c r="H2">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I2">
         <v>2545</v>
@@ -1090,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -1134,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="I4">
         <v>2545</v>
@@ -1178,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>65</v>
@@ -1222,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>65</v>
@@ -1266,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I7">
         <v>2545</v>
@@ -1310,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8">
         <v>90</v>
@@ -1334,50 +1328,6 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9">
-        <v>90</v>
-      </c>
-      <c r="I9">
-        <v>2545</v>
-      </c>
-      <c r="J9">
-        <v>2575</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
         <v>0</v>
       </c>
     </row>
